--- a/medicine/Enfance/Marie_Desplechin/Marie_Desplechin.xlsx
+++ b/medicine/Enfance/Marie_Desplechin/Marie_Desplechin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Desplechin, née le 7 janvier 1959 à Roubaix, est une journaliste et écrivaine française, autrice de livres pour enfants et pour adultes. Elle participe également à l'écriture de scénarios.
 </t>
@@ -511,27 +523,25 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après quelques années au lycée général Charles-Baudelaire de Roubaix et une formation de journaliste, puis quelques années de travail dans la communication d'entreprise, elle publie, encouragée par Geneviève Brisac, ses premiers livres à l'École des loisirs (Rude samedi pour Angèle, Le Sac à dos d'Alphonse), puis rencontre un premier succès avec, pour les plus grands, la publication d'un recueil de nouvelles intitulé Trop sensibles.
 Verte et Sans moi lui permettent d'atteindre un public plus large.
 En janvier 2003 sort Dragons. Le monde de Joseph publié en 2000 en avait constitué un prélude adapté à de jeunes lecteurs. Satin Grenadine, puis Séraphine explorent le XIXe siècle parisien.
-En parallèle, elle travaille avec l'écrivaine Lydie Violet qui fut son attachée de presse aux Éditions de l'Olivier et son amie. Cette dernière doit renoncer à sa vie professionnelle lorsqu'elle est atteinte d'un cancer[1]. De cette écriture à quatre mains sort La Vie sauve, qui remporte en novembre 2005 le prix Médicis essai.
+En parallèle, elle travaille avec l'écrivaine Lydie Violet qui fut son attachée de presse aux Éditions de l'Olivier et son amie. Cette dernière doit renoncer à sa vie professionnelle lorsqu'elle est atteinte d'un cancer. De cette écriture à quatre mains sort La Vie sauve, qui remporte en novembre 2005 le prix Médicis essai.
 Plusieurs de ses livres ont été traduits à l'étranger.
 Elle participe également à des recueils collectifs parmi lesquels on peut citer Naissances (2005 - L'Iconoclaste) ou encore 100 jours sans publié au printemps 2005 pour le comité de soutien à Florence Aubenas et Hussein Hanoun dont elle fit activement partie, ainsi qu'à la revue penser/rêver et à quelques magazines (dont Miss Star Club pour Le Journal d'Aurore et certains numéros de Je bouquine) et contribue à des projets (Beaucoup plus que l'amour pour la bibliothèque municipale de la ville de Bobigny) ou L'Estuaire (2004) et La Photo (2005) pour une maison d'édition récente.
 Elle est membre du comité de parrainage de la Coordination française pour la Décennie de la culture de paix et de non-violence et depuis 2006 publie régulièrement des articles dans L'Express.
-Danbé, coécrit avec Aya Cissoko, obtient le Grand prix de l'héroïne Madame Figaro 2011. L'ouvrage est adapté en 2014 en téléfilm : Danbé, la tête haute, téléfilm français de Bourlem Guerdjou, récompensé du Meilleur film au festival de la fiction TV de La Rochelle 2014[2].
-En 2011, elle obtient une Pépite au Salon du livre et de la presse jeunesse de Montreuil : la Pépite du livre d’art (création francophone)[3] pour Mon Petit Théâtre de Peau-d’Ane avec Jean-Michel Othoniel, et l'année suivante, en 2012, elle est récompensée d'une « mention » au prix Bologna Ragazzi[4], décerné à la foire du livre de jeunesse de Bologne, catégorie « fiction », pour l'album Saltimbanques qu'elle a écrit, sur des illustrations d'Emmanuelle Houdart.
-En 2013, elle obtient le prix Bernard Versele pour son ouvrage jeunesse Babyfaces[5].
-En novembre 2015, quelques semaines avant la COP21, elle compose en association avec d'autres écrivains un discours adressé aux enfants pour les sensibiliser au réchauffement climatique[6].
-Six de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[7].
+Danbé, coécrit avec Aya Cissoko, obtient le Grand prix de l'héroïne Madame Figaro 2011. L'ouvrage est adapté en 2014 en téléfilm : Danbé, la tête haute, téléfilm français de Bourlem Guerdjou, récompensé du Meilleur film au festival de la fiction TV de La Rochelle 2014.
+En 2011, elle obtient une Pépite au Salon du livre et de la presse jeunesse de Montreuil : la Pépite du livre d’art (création francophone) pour Mon Petit Théâtre de Peau-d’Ane avec Jean-Michel Othoniel, et l'année suivante, en 2012, elle est récompensée d'une « mention » au prix Bologna Ragazzi, décerné à la foire du livre de jeunesse de Bologne, catégorie « fiction », pour l'album Saltimbanques qu'elle a écrit, sur des illustrations d'Emmanuelle Houdart.
+En 2013, elle obtient le prix Bernard Versele pour son ouvrage jeunesse Babyfaces.
+En novembre 2015, quelques semaines avant la COP21, elle compose en association avec d'autres écrivains un discours adressé aux enfants pour les sensibiliser au réchauffement climatique.
+Six de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF).
 Sa série jeunesse Le Journal d'Aurore de trois opus publiés entre 2006 et 2009 est adaptée au cinéma en 2016 dans le film français Jamais contente, réalisé par Émilie Deleuze. La même année, les deux premiers opus sont adaptés en un seul album intitulé Jamais contente, toujours fâchée ! et dessiné par Agnès Maupré. Le dernier opus est adapté dans un deuxième album intitulé Rien ne va plus !  et publié l'année suivante.
-En 2017, son roman jeunesse Verte publié en 1996, est adapté en album également, et les illustrations sont réalisées par Magali Le Huche ; « une adaptation plutôt drôle, assez fidèle au roman même si la structure en est différente, avec un dessin plein de fantaisie aux couleurs très tendres »[8] selon Pascale Joncour dans La Revue des livres pour enfants. Suivront en 2018 les deux opus de la série adaptés : Pome et Mauve.
-En 2024, elle est sélectionnée pour le prestigieux prix suédois qui est la plus haute distinction en matière de littérature d'enfance et de jeunesse, le Prix commémoratif Astrid-Lindgren[9].
-Engagements politiques
-En mai 2017, elle est suppléante de Julien Bayou (EELV), candidat aux élections législatives de juin 2017 dans la 5e circonscription de Paris (10e et 3e arrondissements)[10].
-Vie privée
-Elle est la fille de Robert Desplechin et de Madeleine dite Mado née Simon, la sœur de Raphaëlle Valbrune-Desplechin, de Fabrice et d'Arnaud Desplechin, et la mère de trois enfants, dont Louis (écrivain jeunesse lui aussi, né en 1983) et Lucie (actrice et metteuse en scène), fils et fille de l'écrivain François Muratet, et le pianiste Élie Pierre Honoré Gédigier, fils du monteur de cinéma François Gédigier, avec lequel elle est aujourd'hui mariée[11].
+En 2017, son roman jeunesse Verte publié en 1996, est adapté en album également, et les illustrations sont réalisées par Magali Le Huche ; « une adaptation plutôt drôle, assez fidèle au roman même si la structure en est différente, avec un dessin plein de fantaisie aux couleurs très tendres » selon Pascale Joncour dans La Revue des livres pour enfants. Suivront en 2018 les deux opus de la série adaptés : Pome et Mauve.
+En 2024, elle est sélectionnée pour le prestigieux prix suédois qui est la plus haute distinction en matière de littérature d'enfance et de jeunesse, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -557,22 +567,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prix et distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1996 : Prix Tam-Tam pour Verte[12]
-1997 : Prix Jacques-Asklund pour Verte[13]
-2000 : Prix de la Semaine Paul Hurtmans pour La Prédiction de Nadia[14]
-2005 : Prix Médicis essai pour La Vie sauve, coécrit avec Lydie Violet
-2011 : Grand prix de l'héroïne Madame Figaro pour Danbé, coécrit avec Aya Cissoko
-2013 : Prix Bernard Versele (5 chouettes) pour son ouvrage jeunesse Babyfaces[5]
-2011 : Pépite du Salon du livre et de la presse jeunesse de Montreuil : Pépite du livre d’art (création francophone)[3] pour Mon Petit Théâtre de Peau-d’Ane avec Jean-Michel Othoniel
-2012 : « Mention » Prix BolognaRagazzi[4], Foire du livre de jeunesse de Bologne, catégorie "Fiction", pour l'album Saltimbanques qu'elle a écrit, sur des illustrations de Emmanuelle Houdart.
-2020 : Prix de la Grande Ourse[15] du Salon du livre et de la presse jeunesse de Montreuil pour l'ensemble de son œuvre[16].
-2024 :  Sélection pour le Prix commémoratif Astrid-Lindgren[9]
-Six de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[7] : Verte (1996), La Prédiction de Nadia (1997), Le Monde de Joseph (2000), Élie et Sam illustré par Philippe Dumas (2004), Satin grenadine (2004) et Séraphine (2005).
+          <t>Engagements politiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2017, elle est suppléante de Julien Bayou (EELV), candidat aux élections législatives de juin 2017 dans la 5e circonscription de Paris (10e et 3e arrondissements).
 </t>
         </is>
       </c>
@@ -598,12 +604,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Décorations</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2011 :  Officier de l'ordre des Arts et des Lettres[17]</t>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est la fille de Robert Desplechin et de Madeleine dite Mado née Simon, la sœur de Raphaëlle Valbrune-Desplechin, de Fabrice et d'Arnaud Desplechin, et la mère de trois enfants, dont Louis (écrivain jeunesse lui aussi, né en 1983) et Lucie (actrice et metteuse en scène), fils et fille de l'écrivain François Muratet, et le pianiste Élie Pierre Honoré Gédigier, fils du monteur de cinéma François Gédigier, avec lequel elle est aujourd'hui mariée.
+</t>
         </is>
       </c>
     </row>
@@ -628,31 +641,111 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1996 : Prix Tam-Tam pour Verte
+1997 : Prix Jacques-Asklund pour Verte
+2000 : Prix de la Semaine Paul Hurtmans pour La Prédiction de Nadia
+2005 : Prix Médicis essai pour La Vie sauve, coécrit avec Lydie Violet
+2011 : Grand prix de l'héroïne Madame Figaro pour Danbé, coécrit avec Aya Cissoko
+2013 : Prix Bernard Versele (5 chouettes) pour son ouvrage jeunesse Babyfaces
+2011 : Pépite du Salon du livre et de la presse jeunesse de Montreuil : Pépite du livre d’art (création francophone) pour Mon Petit Théâtre de Peau-d’Ane avec Jean-Michel Othoniel
+2012 : « Mention » Prix BolognaRagazzi, Foire du livre de jeunesse de Bologne, catégorie "Fiction", pour l'album Saltimbanques qu'elle a écrit, sur des illustrations de Emmanuelle Houdart.
+2020 : Prix de la Grande Ourse du Salon du livre et de la presse jeunesse de Montreuil pour l'ensemble de son œuvre.
+2024 :  Sélection pour le Prix commémoratif Astrid-Lindgren
+Six de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) : Verte (1996), La Prédiction de Nadia (1997), Le Monde de Joseph (2000), Élie et Sam illustré par Philippe Dumas (2004), Satin grenadine (2004) et Séraphine (2005).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2011 :  Officier de l'ordre des Arts et des Lettres</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Littérature jeunesse
-1993 : Le Sac à dos d'Alphonse, L'École des loisirs  (ISBN 2-211-04429-8)
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1993 : Le Sac à dos d'Alphonse, L'École des loisirs  (ISBN 2-211-04429-8)
 1994 : Rude samedi pour Angèle, L'École des loisirs
 1994 : Et Dieu dans tout ça ?, L'École des loisirs
 1995 : Tu seras un homme mon neveu, L'École des loisirs
 1995 : Une vague d'amour sur un lac d'amitié, L'École des loisirs  (ISBN 2-211-03135-8)
-1996 : Verte, L'École des loisirs Prix Tam-Tam 1996[12] - Prix Jacques-Asklund 1997[13] - « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[7]
+1996 : Verte, L'École des loisirs Prix Tam-Tam 1996 - Prix Jacques-Asklund 1997 - « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)
 1997 : J'envie ceux qui sont dans ton cœur, L'École des loisirs
-1997 : La Prédiction de Nadia, L'École des loisirs Prix de la Semaine Paul Hurtmans 2000[14] - « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[7]
+1997 : La Prédiction de Nadia, L'École des loisirs Prix de la Semaine Paul Hurtmans 2000 - « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)
 2000 : Le Coup du kiwi, L'École des loisirs
-2000 : Le Monde de Joseph, L'École des loisirs  (ISBN 2-211-05979-1)  « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[7] 
+2000 : Le Monde de Joseph, L'École des loisirs  (ISBN 2-211-05979-1)  « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) 
 2002 : Ma collection d'amours, L'École des loisirs
 2003 : Dragons, éditions de l'Olivier
 2003 : Ma vie d'artiste, édition Bayard Jeunesse
-2004 : Élie et Sam, illustrations de Philippe Dumas, L'École des loisirs « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[7]
+2004 : Élie et Sam, illustrations de Philippe Dumas, L'École des loisirs « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)
 2004 : Entre l'Elfe et la Fée, L'École des loisirs
-2004 : Satin Grenadine, L’École des loisirs  « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[7] 
+2004 : Satin Grenadine, L’École des loisirs  « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) 
 2004 : Dis-moi tout !, éditions Bayard jeunesse
 2004 : La Vraie Fille du volcan, théâtre, L'École des loisirs
-2005 : Séraphine, L'École des loisirs  « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[7] 
+2005 : Séraphine, L'École des loisirs  « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) 
 2006 : Petit Boulot d'été, édition Bayard Jeunesse  (ISBN 2-7470-2005-3)
 Série « Le Journal d'Aurore », L'école des loisirs
 Jamais contente. Le Journal d'Aurore, 1, 2006
@@ -661,22 +754,56 @@
 2007 : Pome, L'École des loisirs
 2008 : Les Yeux d'or, L'école des loisirs
 2010 : La Belle Adèle, Gallimard Jeunesse
-2010 : Babyfaces, L'École des loisirs Prix Bernard Versele 2013[5], catégorie 5 chouettes
-2011 : Mon Petit théâtre de Peau d'âne, œuvres de Jean-Michel Othoniel, Éd. courtes et longues Pépite du Salon du livre et de la presse jeunesse de Montreuil : Pépite du livre d’art (création francophone) 2011[3] 
-2011 : Saltimbanques, illustrations de Emmanuelle Houdart, éditions Thierry Magnier « Mention » Prix BolognaRagazzi 2012[4], Foire du livre de jeunesse de Bologne, catégorie "Fiction" 
+2010 : Babyfaces, L'École des loisirs Prix Bernard Versele 2013, catégorie 5 chouettes
+2011 : Mon Petit théâtre de Peau d'âne, œuvres de Jean-Michel Othoniel, Éd. courtes et longues Pépite du Salon du livre et de la presse jeunesse de Montreuil : Pépite du livre d’art (création francophone) 2011 
+2011 : Saltimbanques, illustrations de Emmanuelle Houdart, éditions Thierry Magnier « Mention » Prix BolognaRagazzi 2012, Foire du livre de jeunesse de Bologne, catégorie "Fiction" 
 2013 : L'Argent, illustrations de Emmanuelle Houdart, éditions Thierry Magnier
 2013 : Le Bon Antoine, Gallimard Jeunesse
 2014 : Mauve, L'école des loisirs
 2016 : Sothik, coécrit avec Sothik Hok, illustrations de Tian, L'École des loisirs
-2017 : L'École de ma vie[18], illustrations de Glen Chapron, L'École des loisirs
+2017 : L'École de ma vie, illustrations de Glen Chapron, L'École des loisirs
 2018 : Ça va faire des histoires, illustrations de Glen Chapron, L'École des loisirs
 2019 : Ne change jamais !
 2020 : La Capucine, L'École des loisirs
 Participation
 2007 : Collectif, Juke box, L'École des loisirs
-2011 : Collectif, Le Dur Métier de loup, L’École des loisirs
-Littérature générale
-1995 : Trop sensibles, Éditions de l'Olivier
+2011 : Collectif, Le Dur Métier de loup, L’École des loisirs</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1995 : Trop sensibles, Éditions de l'Olivier
 1998 : Sans moi, Éditions de l'Olivier  (ISBN 2-87929-174-7) ; rééd. Seuil, coll. Points n° P681  (ISBN 2-02-038204-0)
 2003 : Dragons, Éditions de l'Olivier, rééd. Seuil coll. Points
 2004 : Le Sac à main, illustration d'Eric Lambé, éditions L'Estuaire  (ISBN 2-87443-002-1)
@@ -688,7 +815,7 @@
 2006 : Bobigny, centre ville, avec Denis Darzacq, Actes Sud
 2008 : Fine, Haute, Fuselée, nouvelle parue dans la revue ICONOfly #4 et publié aux éditions Sergio Rossi la même année.
 2009 : La Galerie de Psyché, Chantilly, Nicolas Chaudun
-2011 : Danbé[2], avec Aya Cissoko, Calmann-Lévy Grand prix de l'héroïne Madame Figaro 2011 
+2011 : Danbé, avec Aya Cissoko, Calmann-Lévy Grand prix de l'héroïne Madame Figaro 2011 
 2013 : La Classe, Odile Jacob
 2015 : Les Belles Danses, œuvres de Jean-Michel Othoniel, Éditions Courtes et longues
 2017 :  Ta race ! : moi et les autres, avec Betty Bone ; avec la collaboration d'Évelyne Heyer et Carole Reynaud-Paligot, Éditions Courtes et longues
@@ -702,31 +829,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Marie_Desplechin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Scénarios de films</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2001 : Les Mondes parallèles, avec Petr Vaclav
 2006 : Suivre sa princesse, avec Petr Vaclav
@@ -738,105 +867,148 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Marie_Desplechin</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>2009 : Au bois dormant, écriture et récitation, avec la compagnie Thierry Thieû Niang au Théâtre de la Cité internationale.</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Marie_Desplechin</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Feuilleton radiophonique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2014 : L'Été de Lydie, feuilleton radiophonique de 6 émissions, avec Lydie Violet, France-Culture[19].</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Marie_Desplechin</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2014 : L'Été de Lydie, feuilleton radiophonique de 6 émissions, avec Lydie Violet, France-Culture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>En albums
-Les trois opus de sa série Le Journal d'Aurore sont adaptés en deux tomes :
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>En albums</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les trois opus de sa série Le Journal d'Aurore sont adaptés en deux tomes :
 2016 : Le Journal d'Aurore, tome 1 : Jamais contente, toujours fâchée ! , dessins d'Agnès Maupré, éd. Rue de Sèvres  (ISBN 978-2369812272)
 2017 : Le Journal d'Aurore, tome 2 : Rien ne va plus !, dessins d'Agnès Maupré, éd. Rue de Sèvres
 Sa série de trois romans :
-2017 : Verte[8], dessins de Magali Le Huche, Rue de Sèvre
+2017 : Verte, dessins de Magali Le Huche, Rue de Sèvre
 2018 : Pome, dessins de Magali Le Huche, Rue de Sèvres
-2018 : Mauve, dessins de Magali Le Huche, Rue de Sèvres
-En films
-2003 : Verte, film d'animation français de Serge Élissalde[20]
+2018 : Mauve, dessins de Magali Le Huche, Rue de Sèvres</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Desplechin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>En films</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2003 : Verte, film d'animation français de Serge Élissalde
 2006 : La Prédiction de Nadia, film français de Arnaud Sélignac
 2007 : Sans moi, film français d'Olivier Panchot
-2014 : Danbé, la tête haute, d'après l'ouvrage coécrit avec Aya Cissoko, téléfilm français de Bourlem Guerdjou Meilleur film au festival de la fiction TV de La Rochelle 2014[2] 
+2014 : Danbé, la tête haute, d'après l'ouvrage coécrit avec Aya Cissoko, téléfilm français de Bourlem Guerdjou Meilleur film au festival de la fiction TV de La Rochelle 2014 
 2016 : Jamais contente, d'après les 3 titres de la série Le Journal d'Aurore, film français de Émilie Deleuze</t>
         </is>
       </c>
